--- a/dev/summary_table.xlsx
+++ b/dev/summary_table.xlsx
@@ -8,13 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hcetin/Documents/Courses/CSCI 570 - Analysis of Algorithms/CSCI570_Fall22_Project/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B3C4C5-5DA4-7447-A677-6851398AFF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99858A76-0F06-8546-B4A7-74A54106D0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="880" windowWidth="21300" windowHeight="22500" xr2:uid="{A61F8504-E43E-E149-86A3-48FD4A0455B9}"/>
+    <workbookView xWindow="12900" yWindow="-24640" windowWidth="27660" windowHeight="22500" xr2:uid="{A61F8504-E43E-E149-86A3-48FD4A0455B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$16</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$16</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$2:$C$16</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$16</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$2:$B$16</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$16</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$16</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$16</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$2:$C$16</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -158,14 +169,14 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11038954093002526"/>
+          <c:x val="0.1198235031941762"/>
           <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.83392913385826772"/>
+          <c:w val="0.82449517159411678"/>
           <c:h val="0.78838883511654068"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -183,9 +194,21 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$16</c:f>
               <c:numCache>
@@ -238,8 +261,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$16</c:f>
               <c:numCache>
@@ -292,7 +315,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -316,9 +339,21 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$16</c:f>
               <c:numCache>
@@ -371,8 +406,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$16</c:f>
               <c:numCache>
@@ -425,7 +460,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -441,14 +476,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="519177360"/>
         <c:axId val="519102880"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="519177360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -472,7 +507,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -485,7 +520,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>M+N</a:t>
                 </a:r>
               </a:p>
@@ -512,7 +547,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -529,7 +564,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -550,7 +585,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -567,11 +602,8 @@
         </c:txPr>
         <c:crossAx val="519102880"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="519102880"/>
         <c:scaling>
@@ -599,7 +631,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -612,8 +644,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>Time</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -631,7 +663,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -647,7 +679,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -663,7 +695,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -680,7 +712,7 @@
         </c:txPr>
         <c:crossAx val="519177360"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -702,10 +734,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1386582974298024"/>
+          <c:x val="0.15186584459961375"/>
           <c:y val="9.3939623826091515E-2"/>
-          <c:w val="0.20008542564254939"/>
-          <c:h val="0.12873832631386192"/>
+          <c:w val="0.14478339028376169"/>
+          <c:h val="0.15228555732858973"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -727,7 +759,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -769,7 +801,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200"/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -803,14 +835,14 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11038954093002526"/>
+          <c:x val="0.16321972960927053"/>
           <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.83392913385826772"/>
+          <c:w val="0.78109894517902245"/>
           <c:h val="0.78838883511654068"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -828,9 +860,21 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$16</c:f>
               <c:numCache>
@@ -883,8 +927,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$D$2:$D$16</c:f>
               <c:numCache>
@@ -937,7 +981,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -961,9 +1005,21 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$16</c:f>
               <c:numCache>
@@ -1016,8 +1072,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$E$2:$E$16</c:f>
               <c:numCache>
@@ -1070,7 +1126,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1086,14 +1142,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="519177360"/>
         <c:axId val="519102880"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="519177360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1117,7 +1173,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1130,7 +1186,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>M+N</a:t>
                 </a:r>
               </a:p>
@@ -1157,7 +1213,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1174,7 +1230,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1195,7 +1251,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1212,11 +1268,10 @@
         </c:txPr>
         <c:crossAx val="519102880"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="500"/>
+        <c:minorUnit val="100"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="519102880"/>
         <c:scaling>
@@ -1244,7 +1299,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1257,12 +1312,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>Memory</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Memory (KB)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.1609419105630665E-2"/>
+              <c:y val="0.31001229497475608"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1276,7 +1339,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1308,7 +1371,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1325,7 +1388,7 @@
         </c:txPr>
         <c:crossAx val="519177360"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1347,10 +1410,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1386582974298024"/>
-          <c:y val="9.3939623826091515E-2"/>
-          <c:w val="0.20008542564254939"/>
-          <c:h val="0.12873832631386192"/>
+          <c:x val="0.19714886346753827"/>
+          <c:y val="0.10058414209851675"/>
+          <c:w val="0.14478339028376169"/>
+          <c:h val="0.15228555732858973"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1372,7 +1435,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1414,7 +1477,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200"/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2919,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3B982C-B565-4041-BE7A-3062CB540D69}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/dev/summary_table.xlsx
+++ b/dev/summary_table.xlsx
@@ -8,24 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hcetin/Documents/Courses/CSCI 570 - Analysis of Algorithms/CSCI570_Fall22_Project/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99858A76-0F06-8546-B4A7-74A54106D0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B64A203-827D-E542-B278-0B7C299EC1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="-24640" windowWidth="27660" windowHeight="22500" xr2:uid="{A61F8504-E43E-E149-86A3-48FD4A0455B9}"/>
+    <workbookView xWindow="-20" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{A61F8504-E43E-E149-86A3-48FD4A0455B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$16</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$16</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$2:$C$16</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$16</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$2:$B$16</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$16</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$16</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$16</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$2:$C$16</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -835,10 +824,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16321972960927053"/>
-          <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.78109894517902245"/>
-          <c:h val="0.78838883511654068"/>
+          <c:x val="0.17184275694351769"/>
+          <c:y val="0.1047878647522001"/>
+          <c:w val="0.77367646840755078"/>
+          <c:h val="0.79192311255210734"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -874,6 +863,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9819386983406742E-2"/>
+                  <c:y val="2.8473830477072719E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$16</c:f>
@@ -1019,6 +1058,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4201402790752851E-3"/>
+                  <c:y val="-8.2277906438165821E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$16</c:f>
@@ -1192,14 +1281,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.48774565443470508"/>
-              <c:y val="0.9230300572893505"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1318,14 +1399,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.1609419105630665E-2"/>
-              <c:y val="0.31001229497475608"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1356,7 +1429,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1410,10 +1483,1806 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19714886346753827"/>
-          <c:y val="0.10058414209851675"/>
-          <c:w val="0.14478339028376169"/>
-          <c:h val="0.15228555732858973"/>
+          <c:x val="0.20029331079377791"/>
+          <c:y val="0.18154145437702637"/>
+          <c:w val="0.22036281449667278"/>
+          <c:h val="0.26963501621120889"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13032022813757277"/>
+          <c:y val="0.1047878647522001"/>
+          <c:w val="0.81519893923294195"/>
+          <c:h val="0.79192311255210734"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Basic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10311518586128282"/>
+                  <c:y val="-6.0075222555943395E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.0370087822067225E-2"/>
+                  <c:y val="-5.408867061720378E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0.0014x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> + 6.3363x - 1167.3</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr>
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0.9789</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1184</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1616</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3184</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5184</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7728</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11280</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19344</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29312</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31504</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34208</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F145-174C-BA3D-2F84569F1F48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Efficient</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5534788255274321E-3"/>
+                  <c:y val="-4.9798008496360638E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.164770273093026"/>
+                  <c:y val="-4.9534323673458343E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1072</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F145-174C-BA3D-2F84569F1F48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="519177360"/>
+        <c:axId val="519102880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="519177360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>M+N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.52178359625462045"/>
+              <c:y val="0.91217482479638501"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519102880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="500"/>
+        <c:minorUnit val="100"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="519102880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Memory (KB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.381676338900544E-2"/>
+              <c:y val="0.41369172281299887"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519177360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FBFBFB"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17607189239753335"/>
+          <c:y val="0.15920475146792221"/>
+          <c:w val="0.22036281449667278"/>
+          <c:h val="0.26963501621120889"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13032022813757277"/>
+          <c:y val="0.1047878647522001"/>
+          <c:w val="0.81519893923294195"/>
+          <c:h val="0.79192311255210734"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Basic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.5468127037753411E-2"/>
+                  <c:y val="-2.2784858078307223E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.0289894559027874E-3"/>
+                  <c:y val="-8.4116134967665124E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.92999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6600000000000104E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.94699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1476999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.393E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1201000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5777000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29094199999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40342099999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76231000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.156417</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.747261</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.017363</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7794189999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-544F-E24C-ABCC-7DF4A2DD04A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Efficient</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10584874987512366"/>
+                  <c:y val="3.0588115918499879E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7786466138099432E-2"/>
+                  <c:y val="-8.4295262061314501E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.80400000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6909999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.146505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46470800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89195499999999905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6661999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0313569999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2548330000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6843819999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1124879999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2133950000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.7858159999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.536842</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.6425719999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.465664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-544F-E24C-ABCC-7DF4A2DD04A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="519177360"/>
+        <c:axId val="519102880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="519177360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>M+N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.52178359625462045"/>
+              <c:y val="0.91217482479638501"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519102880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="500"/>
+        <c:minorUnit val="100"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="519102880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Time (MS)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.8810996376318012E-2"/>
+              <c:y val="0.41369172281299887"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519177360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FBFBFB"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17607189239753335"/>
+          <c:y val="0.15920475146792221"/>
+          <c:w val="0.22036281449667278"/>
+          <c:h val="0.26963501621120889"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1570,6 +3439,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2087,6 +4036,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2650,10 +5631,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2675,6 +5656,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{440722FC-39EA-4349-AED2-87F374452542}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B00752-EAB2-4B4C-A3F1-AF46759B80EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2982,8 +6039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3B982C-B565-4041-BE7A-3062CB540D69}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/dev/summary_table.xlsx
+++ b/dev/summary_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hcetin/Documents/Courses/CSCI 570 - Analysis of Algorithms/CSCI570_Fall22_Project/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B64A203-827D-E542-B278-0B7C299EC1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55F0D79-02C1-E342-AFA1-ADAF56EBC745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{A61F8504-E43E-E149-86A3-48FD4A0455B9}"/>
+    <workbookView xWindow="-3760" yWindow="-26120" windowWidth="36000" windowHeight="22500" xr2:uid="{A61F8504-E43E-E149-86A3-48FD4A0455B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,6 +57,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -74,11 +77,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Menlo"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -109,12 +111,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,9 +159,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1198235031941762"/>
+          <c:x val="0.14623859753379886"/>
           <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.82449517159411678"/>
+          <c:w val="0.79808007725449415"/>
           <c:h val="0.78838883511654068"/>
         </c:manualLayout>
       </c:layout>
@@ -255,52 +256,52 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.92999999999998E-4</c:v>
+                  <c:v>2.02E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6600000000000104E-4</c:v>
+                  <c:v>8.7700000000000202E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.94699999999999E-3</c:v>
+                  <c:v>2.8410000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1476999999999999E-2</c:v>
+                  <c:v>1.1216E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.393E-2</c:v>
+                  <c:v>2.3558999999999899E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1201000000000002E-2</c:v>
+                  <c:v>4.1237999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5777000000000001E-2</c:v>
+                  <c:v>9.2110999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16902</c:v>
+                  <c:v>0.16539899999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29094199999999998</c:v>
+                  <c:v>0.28284599999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.40342099999999997</c:v>
+                  <c:v>0.39537600000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.76231000000000004</c:v>
+                  <c:v>0.75892399999999904</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.156417</c:v>
+                  <c:v>1.1252149999999901</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.747261</c:v>
+                  <c:v>1.709546</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.017363</c:v>
+                  <c:v>2.051755</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7794189999999999</c:v>
+                  <c:v>2.7316149999999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -400,52 +401,52 @@
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.80400000000002E-3</c:v>
+                  <c:v>3.5299999999999199E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6909999999999999E-3</c:v>
+                  <c:v>7.8589999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.146505</c:v>
+                  <c:v>6.9752999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46470800000000001</c:v>
+                  <c:v>0.32392199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89195499999999905</c:v>
+                  <c:v>0.75727499999999903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6661999999999999</c:v>
+                  <c:v>1.565582</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0313569999999999</c:v>
+                  <c:v>2.0020659999999899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2548330000000001</c:v>
+                  <c:v>2.2367329999999899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6843819999999998</c:v>
+                  <c:v>2.4868749999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1124879999999999</c:v>
+                  <c:v>2.8620580000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2133950000000002</c:v>
+                  <c:v>3.8459910000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.7858159999999996</c:v>
+                  <c:v>5.1344709999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.536842</c:v>
+                  <c:v>6.5633269999999904</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.6425719999999995</c:v>
+                  <c:v>8.2935280000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.465664</c:v>
+                  <c:v>9.7230810000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -592,11 +593,13 @@
         <c:crossAx val="519102880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="519102880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -634,11 +637,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time (ms)</a:t>
+                  <a:t>Time in MS</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.9128509879661266E-2"/>
+              <c:y val="0.34462212572265677"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -702,12 +713,13 @@
         <c:crossAx val="519177360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FBFBFB"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="12700">
           <a:solidFill>
             <a:schemeClr val="bg1">
               <a:lumMod val="85000"/>
@@ -723,8 +735,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15186584459961375"/>
-          <c:y val="9.3939623826091515E-2"/>
+          <c:x val="0.16884697667508541"/>
+          <c:y val="9.7261882962304133E-2"/>
           <c:w val="0.14478339028376169"/>
           <c:h val="0.15228555732858973"/>
         </c:manualLayout>
@@ -824,766 +836,6 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17184275694351769"/>
-          <c:y val="0.1047878647522001"/>
-          <c:w val="0.77367646840755078"/>
-          <c:h val="0.79192311255210734"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Basic</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-6.9819386983406742E-2"/>
-                  <c:y val="2.8473830477072719E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>768</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1536</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2560</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3072</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3584</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3968</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1184</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1616</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3184</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5184</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7728</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11280</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19344</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29312</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>31504</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>34208</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>48560</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6B2F-674A-A196-AB6B68213E5C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Efficient</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.4201402790752851E-3"/>
-                  <c:y val="-8.2277906438165821E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>768</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1536</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2560</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3072</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3584</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3968</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>528</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>448</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>544</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>496</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>832</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>688</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>752</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1072</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1232</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6B2F-674A-A196-AB6B68213E5C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="519177360"/>
-        <c:axId val="519102880"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="519177360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="4000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>M+N</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="519102880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="500"/>
-        <c:minorUnit val="100"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="519102880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Memory (KB)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="519177360"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FBFBFB"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.20029331079377791"/>
-          <c:y val="0.18154145437702637"/>
-          <c:w val="0.22036281449667278"/>
-          <c:h val="0.26963501621120889"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1400"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
           <c:x val="0.13032022813757277"/>
           <c:y val="0.1047878647522001"/>
           <c:w val="0.81519893923294195"/>
@@ -1639,8 +891,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10311518586128282"/>
-                  <c:y val="-6.0075222555943395E-3"/>
+                  <c:x val="-9.5468127037753411E-2"/>
+                  <c:y val="-2.2784858078307223E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1687,74 +939,10 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.0370087822067225E-2"/>
-                  <c:y val="-5.408867061720378E-2"/>
+                  <c:x val="2.0289894559027874E-3"/>
+                  <c:y val="-8.4116134967665124E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent1"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>y = 0.0014x</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="30000">
-                        <a:solidFill>
-                          <a:schemeClr val="accent1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>2</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t> + 6.3363x - 1167.3</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr>
-                        <a:solidFill>
-                          <a:schemeClr val="accent1"/>
-                        </a:solidFill>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>R² = 0.9789</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1838,54 +1026,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$16</c:f>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.02E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>8.7700000000000202E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176</c:v>
+                  <c:v>2.8410000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>880</c:v>
+                  <c:v>1.1216E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1184</c:v>
+                  <c:v>2.3558999999999899E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1616</c:v>
+                  <c:v>4.1237999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3184</c:v>
+                  <c:v>9.2110999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5184</c:v>
+                  <c:v>0.16539899999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7728</c:v>
+                  <c:v>0.28284599999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11280</c:v>
+                  <c:v>0.39537600000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19344</c:v>
+                  <c:v>0.75892399999999904</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29312</c:v>
+                  <c:v>1.1252149999999901</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31504</c:v>
+                  <c:v>1.709546</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34208</c:v>
+                  <c:v>2.051755</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48560</c:v>
+                  <c:v>2.7316149999999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1893,7 +1081,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F145-174C-BA3D-2F84569F1F48}"/>
+              <c16:uniqueId val="{00000002-544F-E24C-ABCC-7DF4A2DD04A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1943,8 +1131,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.5534788255274321E-3"/>
-                  <c:y val="-4.9798008496360638E-2"/>
+                  <c:x val="-0.10584874987512366"/>
+                  <c:y val="3.0588115918499879E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1991,8 +1179,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.164770273093026"/>
-                  <c:y val="-4.9534323673458343E-2"/>
+                  <c:x val="-3.7786466138099432E-2"/>
+                  <c:y val="-8.4295262061314501E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2078,54 +1266,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$16</c:f>
+              <c:f>Sheet1!$C$2:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>3.5299999999999199E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>304</c:v>
+                  <c:v>7.8589999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>384</c:v>
+                  <c:v>6.9752999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>352</c:v>
+                  <c:v>0.32392199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>528</c:v>
+                  <c:v>0.75727499999999903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>448</c:v>
+                  <c:v>1.565582</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>336</c:v>
+                  <c:v>2.0020659999999899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>544</c:v>
+                  <c:v>2.2367329999999899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>496</c:v>
+                  <c:v>2.4868749999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>832</c:v>
+                  <c:v>2.8620580000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>688</c:v>
+                  <c:v>3.8459910000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>752</c:v>
+                  <c:v>5.1344709999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1072</c:v>
+                  <c:v>6.5633269999999904</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1360</c:v>
+                  <c:v>8.2935280000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1232</c:v>
+                  <c:v>9.7230810000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2133,7 +1321,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F145-174C-BA3D-2F84569F1F48}"/>
+              <c16:uniqueId val="{00000005-544F-E24C-ABCC-7DF4A2DD04A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2316,7 +1504,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800"/>
-                  <a:t>Memory (KB)</a:t>
+                  <a:t>Time (MS)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2325,7 +1513,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.381676338900544E-2"/>
+              <c:x val="3.8810996376318012E-2"/>
               <c:y val="0.41369172281299887"/>
             </c:manualLayout>
           </c:layout>
@@ -2358,7 +1546,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2417,6 +1605,676 @@
           <c:y val="0.15920475146792221"/>
           <c:w val="0.22036281449667278"/>
           <c:h val="0.26963501621120889"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14623859753379886"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.79808007725449415"/>
+          <c:h val="0.78838883511654068"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Basic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7744</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11456</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19328</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21136</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31248</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34176</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-93A6-064D-98D8-4E971FFAC608}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Efficient</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-93A6-064D-98D8-4E971FFAC608}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="519177360"/>
+        <c:axId val="519102880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="519177360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>M+N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48774565443470508"/>
+              <c:y val="0.9230300572893505"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519102880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="500"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="519102880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="42000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Memory in KB</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="519177360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="6000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FBFBFB"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16507339176942504"/>
+          <c:y val="9.7261882962304133E-2"/>
+          <c:w val="0.14478339028376169"/>
+          <c:h val="0.15228555732858973"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2569,8 +2427,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.5468127037753411E-2"/>
-                  <c:y val="-2.2784858078307223E-2"/>
+                  <c:x val="-0.26397451616125839"/>
+                  <c:y val="-0.3352703141488757"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2617,8 +2475,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.0289894559027874E-3"/>
-                  <c:y val="-8.4116134967665124E-2"/>
+                  <c:x val="-5.4853826662669778E-3"/>
+                  <c:y val="-0.3785209838460914"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2648,6 +2506,56 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9718460797936671E-2"/>
+                  <c:y val="0.19089658251481451"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$16</c:f>
@@ -2704,54 +2612,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:f>Sheet1!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.92999999999998E-4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6600000000000104E-4</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.94699999999999E-3</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1476999999999999E-2</c:v>
+                  <c:v>848</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.393E-2</c:v>
+                  <c:v>1280</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1201000000000002E-2</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5777000000000001E-2</c:v>
+                  <c:v>3024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16902</c:v>
+                  <c:v>5168</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29094199999999998</c:v>
+                  <c:v>7744</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.40342099999999997</c:v>
+                  <c:v>11456</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.76231000000000004</c:v>
+                  <c:v>19328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.156417</c:v>
+                  <c:v>21136</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.747261</c:v>
+                  <c:v>31248</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.017363</c:v>
+                  <c:v>34176</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7794189999999999</c:v>
+                  <c:v>40352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2759,7 +2667,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-544F-E24C-ABCC-7DF4A2DD04A9}"/>
+              <c16:uniqueId val="{00000002-0646-2341-BCBA-93802F4C6F1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2809,8 +2717,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10584874987512366"/>
-                  <c:y val="3.0588115918499879E-2"/>
+                  <c:x val="-4.0571887856578483E-2"/>
+                  <c:y val="-6.2582866574667856E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2857,8 +2765,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.7786466138099432E-2"/>
-                  <c:y val="-8.4295262061314501E-3"/>
+                  <c:x val="-0.22557193326612721"/>
+                  <c:y val="-6.3690640474064447E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2944,54 +2852,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$16</c:f>
+              <c:f>Sheet1!$E$2:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.80400000000002E-3</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6909999999999999E-3</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.146505</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46470800000000001</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89195499999999905</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6661999999999999</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0313569999999999</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2548330000000001</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6843819999999998</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1124879999999999</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2133950000000002</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.7858159999999996</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.536842</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.6425719999999995</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.465664</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2999,7 +2907,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-544F-E24C-ABCC-7DF4A2DD04A9}"/>
+              <c16:uniqueId val="{00000005-0646-2341-BCBA-93802F4C6F1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5593,10 +5501,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5625,23 +5533,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2BD00C4-94B0-0945-B2F8-E27695C3B8C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B00752-EAB2-4B4C-A3F1-AF46759B80EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5663,23 +5571,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{440722FC-39EA-4349-AED2-87F374452542}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49294A8C-5C6A-9540-9984-563B9A899FE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5703,21 +5611,21 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B00752-EAB2-4B4C-A3F1-AF46759B80EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B5AF16-2564-4F42-A8BD-0DB28D2F81FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6039,26 +5947,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3B982C-B565-4041-BE7A-3062CB540D69}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2"/>
@@ -6067,17 +5975,17 @@
       <c r="A2" s="1">
         <v>16</v>
       </c>
-      <c r="B2" s="3">
-        <v>1.92999999999998E-4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1.80400000000002E-3</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>48</v>
+      <c r="B2" s="5">
+        <v>2.02E-4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3.5299999999999199E-4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4">
+        <v>32</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -6085,17 +5993,17 @@
       <c r="A3" s="1">
         <v>64</v>
       </c>
-      <c r="B3" s="3">
-        <v>9.6600000000000104E-4</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4.6909999999999999E-3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>48</v>
-      </c>
-      <c r="E3" s="3">
-        <v>304</v>
+      <c r="B3" s="5">
+        <v>8.7700000000000202E-4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7.8589999999999997E-3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>64</v>
+      </c>
+      <c r="E3" s="4">
+        <v>80</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -6103,17 +6011,17 @@
       <c r="A4" s="1">
         <v>128</v>
       </c>
-      <c r="B4" s="3">
-        <v>2.94699999999999E-3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.146505</v>
-      </c>
-      <c r="D4" s="3">
-        <v>176</v>
-      </c>
-      <c r="E4" s="3">
-        <v>384</v>
+      <c r="B4" s="5">
+        <v>2.8410000000000002E-3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6.9752999999999996E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>192</v>
+      </c>
+      <c r="E4" s="4">
+        <v>112</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -6121,17 +6029,17 @@
       <c r="A5" s="1">
         <v>256</v>
       </c>
-      <c r="B5" s="3">
-        <v>1.1476999999999999E-2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.46470800000000001</v>
-      </c>
-      <c r="D5" s="3">
-        <v>880</v>
-      </c>
-      <c r="E5" s="3">
-        <v>352</v>
+      <c r="B5" s="5">
+        <v>1.1216E-2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.32392199999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>848</v>
+      </c>
+      <c r="E5" s="4">
+        <v>416</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -6139,17 +6047,17 @@
       <c r="A6" s="1">
         <v>384</v>
       </c>
-      <c r="B6" s="3">
-        <v>2.393E-2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.89195499999999905</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1184</v>
-      </c>
-      <c r="E6" s="3">
-        <v>528</v>
+      <c r="B6" s="5">
+        <v>2.3558999999999899E-2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.75727499999999903</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1280</v>
+      </c>
+      <c r="E6" s="4">
+        <v>96</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -6157,17 +6065,17 @@
       <c r="A7" s="1">
         <v>512</v>
       </c>
-      <c r="B7" s="3">
-        <v>4.1201000000000002E-2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1.6661999999999999</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1616</v>
-      </c>
-      <c r="E7" s="3">
-        <v>448</v>
+      <c r="B7" s="5">
+        <v>4.1237999999999997E-2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.565582</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1600</v>
+      </c>
+      <c r="E7" s="4">
+        <v>336</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -6175,17 +6083,17 @@
       <c r="A8" s="1">
         <v>768</v>
       </c>
-      <c r="B8" s="3">
-        <v>9.5777000000000001E-2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2.0313569999999999</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3184</v>
-      </c>
-      <c r="E8" s="3">
-        <v>336</v>
+      <c r="B8" s="5">
+        <v>9.2110999999999998E-2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.0020659999999899</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3024</v>
+      </c>
+      <c r="E8" s="4">
+        <v>400</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -6193,17 +6101,17 @@
       <c r="A9" s="1">
         <v>1024</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.16902</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2.2548330000000001</v>
-      </c>
-      <c r="D9" s="3">
-        <v>5184</v>
-      </c>
-      <c r="E9" s="3">
-        <v>544</v>
+      <c r="B9" s="5">
+        <v>0.16539899999999999</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2.2367329999999899</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5168</v>
+      </c>
+      <c r="E9" s="4">
+        <v>144</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -6211,17 +6119,17 @@
       <c r="A10" s="1">
         <v>1280</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.29094199999999998</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2.6843819999999998</v>
-      </c>
-      <c r="D10" s="3">
-        <v>7728</v>
-      </c>
-      <c r="E10" s="3">
-        <v>496</v>
+      <c r="B10" s="5">
+        <v>0.28284599999999999</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2.4868749999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7744</v>
+      </c>
+      <c r="E10" s="4">
+        <v>160</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -6229,17 +6137,17 @@
       <c r="A11" s="1">
         <v>1536</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.40342099999999997</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3.1124879999999999</v>
-      </c>
-      <c r="D11" s="3">
-        <v>11280</v>
-      </c>
-      <c r="E11" s="3">
-        <v>832</v>
+      <c r="B11" s="5">
+        <v>0.39537600000000001</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2.8620580000000002</v>
+      </c>
+      <c r="D11" s="4">
+        <v>11456</v>
+      </c>
+      <c r="E11" s="4">
+        <v>384</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -6247,17 +6155,17 @@
       <c r="A12" s="1">
         <v>2048</v>
       </c>
-      <c r="B12" s="3">
-        <v>0.76231000000000004</v>
-      </c>
-      <c r="C12" s="3">
-        <v>4.2133950000000002</v>
-      </c>
-      <c r="D12" s="3">
-        <v>19344</v>
-      </c>
-      <c r="E12" s="3">
-        <v>688</v>
+      <c r="B12" s="5">
+        <v>0.75892399999999904</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3.8459910000000002</v>
+      </c>
+      <c r="D12" s="4">
+        <v>19328</v>
+      </c>
+      <c r="E12" s="4">
+        <v>128</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -6265,17 +6173,17 @@
       <c r="A13" s="1">
         <v>2560</v>
       </c>
-      <c r="B13" s="3">
-        <v>1.156417</v>
-      </c>
-      <c r="C13" s="3">
-        <v>5.7858159999999996</v>
-      </c>
-      <c r="D13" s="3">
-        <v>29312</v>
-      </c>
-      <c r="E13" s="3">
-        <v>752</v>
+      <c r="B13" s="5">
+        <v>1.1252149999999901</v>
+      </c>
+      <c r="C13" s="5">
+        <v>5.1344709999999996</v>
+      </c>
+      <c r="D13" s="4">
+        <v>21136</v>
+      </c>
+      <c r="E13" s="4">
+        <v>400</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -6283,17 +6191,17 @@
       <c r="A14" s="1">
         <v>3072</v>
       </c>
-      <c r="B14" s="3">
-        <v>1.747261</v>
-      </c>
-      <c r="C14" s="3">
-        <v>7.536842</v>
-      </c>
-      <c r="D14" s="3">
-        <v>31504</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1072</v>
+      <c r="B14" s="5">
+        <v>1.709546</v>
+      </c>
+      <c r="C14" s="5">
+        <v>6.5633269999999904</v>
+      </c>
+      <c r="D14" s="4">
+        <v>31248</v>
+      </c>
+      <c r="E14" s="4">
+        <v>272</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -6301,17 +6209,17 @@
       <c r="A15" s="1">
         <v>3584</v>
       </c>
-      <c r="B15" s="3">
-        <v>2.017363</v>
-      </c>
-      <c r="C15" s="3">
-        <v>9.6425719999999995</v>
-      </c>
-      <c r="D15" s="3">
-        <v>34208</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1360</v>
+      <c r="B15" s="5">
+        <v>2.051755</v>
+      </c>
+      <c r="C15" s="5">
+        <v>8.2935280000000002</v>
+      </c>
+      <c r="D15" s="4">
+        <v>34176</v>
+      </c>
+      <c r="E15" s="4">
+        <v>240</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -6319,17 +6227,17 @@
       <c r="A16" s="1">
         <v>3968</v>
       </c>
-      <c r="B16" s="3">
-        <v>2.7794189999999999</v>
-      </c>
-      <c r="C16" s="3">
-        <v>11.465664</v>
-      </c>
-      <c r="D16" s="3">
-        <v>48560</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1232</v>
+      <c r="B16" s="5">
+        <v>2.7316149999999899</v>
+      </c>
+      <c r="C16" s="5">
+        <v>9.7230810000000005</v>
+      </c>
+      <c r="D16" s="4">
+        <v>40352</v>
+      </c>
+      <c r="E16" s="4">
+        <v>256</v>
       </c>
       <c r="F16" s="2"/>
     </row>
